--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H2">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I2">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J2">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N2">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q2">
-        <v>2.525193042415</v>
+        <v>3.533903955703333</v>
       </c>
       <c r="R2">
-        <v>22.726737381735</v>
+        <v>31.80513560133</v>
       </c>
       <c r="S2">
-        <v>0.006791095501368317</v>
+        <v>0.008446038480019714</v>
       </c>
       <c r="T2">
-        <v>0.006791095501368316</v>
+        <v>0.008446038480019713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H3">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I3">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J3">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P3">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q3">
-        <v>54.15166538929556</v>
+        <v>70.17643379495065</v>
       </c>
       <c r="R3">
-        <v>487.36498850366</v>
+        <v>631.587904154556</v>
       </c>
       <c r="S3">
-        <v>0.1456320863553251</v>
+        <v>0.1677218361484148</v>
       </c>
       <c r="T3">
-        <v>0.1456320863553251</v>
+        <v>0.1677218361484147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H4">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I4">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J4">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N4">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q4">
-        <v>14.09343690069389</v>
+        <v>16.49146387292133</v>
       </c>
       <c r="R4">
-        <v>126.840932106245</v>
+        <v>148.423174856292</v>
       </c>
       <c r="S4">
-        <v>0.03790200365972304</v>
+        <v>0.0394146361102298</v>
       </c>
       <c r="T4">
-        <v>0.03790200365972304</v>
+        <v>0.03941463611022979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H5">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I5">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J5">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N5">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q5">
-        <v>0.7008437299205555</v>
+        <v>0.5500878679593333</v>
       </c>
       <c r="R5">
-        <v>6.307593569285</v>
+        <v>4.950790811634</v>
       </c>
       <c r="S5">
-        <v>0.00188480509073234</v>
+        <v>0.001314711253733508</v>
       </c>
       <c r="T5">
-        <v>0.001884805090732339</v>
+        <v>0.001314711253733508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>47.393928</v>
       </c>
       <c r="I6">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J6">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N6">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q6">
-        <v>7.317480301415999</v>
+        <v>7.902094935279999</v>
       </c>
       <c r="R6">
-        <v>65.85732271274401</v>
+        <v>71.11885441752</v>
       </c>
       <c r="S6">
-        <v>0.01967917173919197</v>
+        <v>0.01888602484185527</v>
       </c>
       <c r="T6">
-        <v>0.01967917173919197</v>
+        <v>0.01888602484185527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>47.393928</v>
       </c>
       <c r="I7">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J7">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P7">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q7">
         <v>156.920179217696</v>
@@ -883,10 +883,10 @@
         <v>1412.281612959264</v>
       </c>
       <c r="S7">
-        <v>0.42201127013246</v>
+        <v>0.3750395847134653</v>
       </c>
       <c r="T7">
-        <v>0.42201127013246</v>
+        <v>0.3750395847134652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>47.393928</v>
       </c>
       <c r="I8">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J8">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N8">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q8">
-        <v>40.839826962872</v>
+        <v>36.876246434272</v>
       </c>
       <c r="R8">
-        <v>367.558442665848</v>
+        <v>331.886217908448</v>
       </c>
       <c r="S8">
-        <v>0.1098320645216795</v>
+        <v>0.08813431272796528</v>
       </c>
       <c r="T8">
-        <v>0.1098320645216795</v>
+        <v>0.08813431272796525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>47.393928</v>
       </c>
       <c r="I9">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J9">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N9">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q9">
-        <v>2.030898272696</v>
+        <v>1.230040943344</v>
       </c>
       <c r="R9">
-        <v>18.278084454264</v>
+        <v>11.070368490096</v>
       </c>
       <c r="S9">
-        <v>0.005461770205992773</v>
+        <v>0.002939800648151887</v>
       </c>
       <c r="T9">
-        <v>0.005461770205992772</v>
+        <v>0.002939800648151885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H10">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I10">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J10">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N10">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q10">
-        <v>1.633509761004</v>
+        <v>2.373852514872222</v>
       </c>
       <c r="R10">
-        <v>14.701587849036</v>
+        <v>21.36467263385</v>
       </c>
       <c r="S10">
-        <v>0.004393058511988558</v>
+        <v>0.005673512901827574</v>
       </c>
       <c r="T10">
-        <v>0.004393058511988557</v>
+        <v>0.005673512901827572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H11">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I11">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J11">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P11">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q11">
-        <v>35.029905635824</v>
+        <v>47.14007679242444</v>
       </c>
       <c r="R11">
-        <v>315.269150722416</v>
+        <v>424.26069113182</v>
       </c>
       <c r="S11">
-        <v>0.09420722716283526</v>
+        <v>0.1126648905942494</v>
       </c>
       <c r="T11">
-        <v>0.09420722716283526</v>
+        <v>0.1126648905942493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H12">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I12">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J12">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N12">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q12">
-        <v>9.116834379268001</v>
+        <v>11.07791934341555</v>
       </c>
       <c r="R12">
-        <v>82.05150941341201</v>
+        <v>99.70127409074</v>
       </c>
       <c r="S12">
-        <v>0.02451824153632048</v>
+        <v>0.02647625238994954</v>
       </c>
       <c r="T12">
-        <v>0.02451824153632047</v>
+        <v>0.02647625238994953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H13">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I13">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J13">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N13">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q13">
-        <v>0.453365368324</v>
+        <v>0.3695141365255555</v>
       </c>
       <c r="R13">
-        <v>4.080288314916</v>
+        <v>3.32562722873</v>
       </c>
       <c r="S13">
-        <v>0.001219252335004381</v>
+        <v>0.0008831396255037609</v>
       </c>
       <c r="T13">
-        <v>0.001219252335004381</v>
+        <v>0.0008831396255037603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H14">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I14">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J14">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N14">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q14">
-        <v>1.661495298033</v>
+        <v>2.483137149927777</v>
       </c>
       <c r="R14">
-        <v>14.953457682297</v>
+        <v>22.34823434934999</v>
       </c>
       <c r="S14">
-        <v>0.004468321056843053</v>
+        <v>0.005934703427807906</v>
       </c>
       <c r="T14">
-        <v>0.004468321056843052</v>
+        <v>0.005934703427807905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H15">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I15">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J15">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.798788</v>
       </c>
       <c r="O15">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P15">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q15">
-        <v>35.63004329321466</v>
+        <v>49.31025630293554</v>
       </c>
       <c r="R15">
-        <v>320.670389638932</v>
+        <v>443.79230672642</v>
       </c>
       <c r="S15">
-        <v>0.09582119966982812</v>
+        <v>0.1178516245530899</v>
       </c>
       <c r="T15">
-        <v>0.09582119966982812</v>
+        <v>0.1178516245530898</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H16">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I16">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J16">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N16">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q16">
-        <v>9.273025368877667</v>
+        <v>11.58791158810444</v>
       </c>
       <c r="R16">
-        <v>83.45722831989899</v>
+        <v>104.29120429294</v>
       </c>
       <c r="S16">
-        <v>0.02493829176973869</v>
+        <v>0.02769513501300506</v>
       </c>
       <c r="T16">
-        <v>0.02493829176973868</v>
+        <v>0.02769513501300506</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H17">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I17">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J17">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N17">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q17">
-        <v>0.4611324925896667</v>
+        <v>0.3865253945144443</v>
       </c>
       <c r="R17">
-        <v>4.150192433307</v>
+        <v>3.478728550629999</v>
       </c>
       <c r="S17">
-        <v>0.001240140750968292</v>
+        <v>0.0009237965707316632</v>
       </c>
       <c r="T17">
-        <v>0.001240140750968292</v>
+        <v>0.0009237965707316628</v>
       </c>
     </row>
   </sheetData>
